--- a/operative_assignment_july_2022.xlsx
+++ b/operative_assignment_july_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kaushalya.tech\consultancy\operative\training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B3720B-1E01-4C3F-B8B7-5AED8AF0E140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079334E4-0330-4806-9B4A-4106A6883CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Sl No</t>
   </si>
@@ -106,6 +106,25 @@
   </si>
   <si>
     <t>% ge saving</t>
+  </si>
+  <si>
+    <t>13/7/2022</t>
+  </si>
+  <si>
+    <t>AJAX/JS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Develop a user interface to fetch the data using ajax
+http://jsonplaceholder.typicode.com/users
+2. Display following data in a table
+Name,Email,City,Phone,Company Name
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javascript practice - w3schools - Arrays
+https://www.w3schools.com/js/js_arrays.asp
+String -- https://www.w3schools.com/js/js_strings.asp
+</t>
   </si>
 </sst>
 </file>
@@ -211,7 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -229,6 +248,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -512,16 +537,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{380630C8-0555-45AE-8D26-715650C4BC5F}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="3" width="16.36328125" customWidth="1"/>
-    <col min="4" max="4" width="66.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.90625" customWidth="1"/>
     <col min="5" max="5" width="66.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -608,13 +633,41 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>44872</v>
+        <v>44902</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/operative_assignment_july_2022.xlsx
+++ b/operative_assignment_july_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kaushalya.tech\consultancy\operative\training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079334E4-0330-4806-9B4A-4106A6883CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38E5C9B-4C1C-43E8-86E5-283AC867E47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Sl No</t>
   </si>
@@ -125,6 +125,12 @@
 https://www.w3schools.com/js/js_arrays.asp
 String -- https://www.w3schools.com/js/js_strings.asp
 </t>
+  </si>
+  <si>
+    <t>https://youtu.be/SWYqp7iY_Tc</t>
+  </si>
+  <si>
+    <t>Git crashcourse</t>
   </si>
 </sst>
 </file>
@@ -537,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{380630C8-0555-45AE-8D26-715650C4BC5F}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -668,6 +674,20 @@
       </c>
       <c r="D8" s="14" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/operative_assignment_july_2022.xlsx
+++ b/operative_assignment_july_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kaushalya.tech\consultancy\operative\training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38E5C9B-4C1C-43E8-86E5-283AC867E47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59C9DA9-986D-4909-88DA-FC6AD9B27EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -546,7 +546,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/operative_assignment_july_2022.xlsx
+++ b/operative_assignment_july_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kaushalya.tech\consultancy\operative\training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59C9DA9-986D-4909-88DA-FC6AD9B27EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B1C369-DA8D-4635-A30B-5515342362F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Sl No</t>
   </si>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t>Git crashcourse</t>
+  </si>
+  <si>
+    <t>14/7/2022</t>
+  </si>
+  <si>
+    <t>Web API - Fetch</t>
+  </si>
+  <si>
+    <t>1. Develop a user interface to demonstrate CRUD for todo's. Use jsonplaceholder todo's rest api</t>
   </si>
 </sst>
 </file>
@@ -236,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -262,6 +271,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -543,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{380630C8-0555-45AE-8D26-715650C4BC5F}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -688,6 +698,20 @@
       </c>
       <c r="D9" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/operative_assignment_july_2022.xlsx
+++ b/operative_assignment_july_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kaushalya.tech\consultancy\operative\training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B1C369-DA8D-4635-A30B-5515342362F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3300E447-A0C2-4226-AF34-3FBB9AE03386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,7 +556,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/operative_assignment_july_2022.xlsx
+++ b/operative_assignment_july_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kaushalya.tech\consultancy\operative\training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3300E447-A0C2-4226-AF34-3FBB9AE03386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D057638C-6ABF-4B06-89CD-A0555AB00646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Sl No</t>
   </si>
@@ -140,6 +140,29 @@
   </si>
   <si>
     <t>1. Develop a user interface to demonstrate CRUD for todo's. Use jsonplaceholder todo's rest api</t>
+  </si>
+  <si>
+    <t>18/7/2022</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Develop a user interface to calculate Electric bill payment
+Enter Units Consumed &lt;Text box&gt;
+&lt;button&gt;Calculate Bill&lt;button&gt;
+Your bill amount is &lt;Bill Amount&gt;
+Calculation..
+Units Consumed &lt;= 100 units - Unit rate is 1 INR/Unit
+Units Consumed &gt; 100 units &amp;&amp; &lt;=200 - Unit rate is 2 INR/Unit
+Units Consumed &gt; 200 units &amp;&amp; &lt;=300 - Unit rate is 3 INR/Unit
+Units Consumed &gt; 300 Unit rate is 5 INR/Unit
+Sample Calculation : 
+Note Calculation is cumulative
+Units consumed 50 units - consumer should pay 50 X 1 = 50
+Units consumed is 150 Units - Consumed should pay 100 X 1 = 100 for first 100 Units. 50 X2 = 100 for second slab.
+Total amount = 200
+</t>
   </si>
 </sst>
 </file>
@@ -553,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{380630C8-0555-45AE-8D26-715650C4BC5F}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -712,6 +735,20 @@
       </c>
       <c r="D10" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/operative_assignment_july_2022.xlsx
+++ b/operative_assignment_july_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kaushalya.tech\consultancy\operative\training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D057638C-6ABF-4B06-89CD-A0555AB00646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3339E38E-2D39-4105-BE65-73C0E6422E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>Sl No</t>
   </si>
@@ -163,6 +163,45 @@
 Units consumed is 150 Units - Consumed should pay 100 X 1 = 100 for first 100 Units. 50 X2 = 100 for second slab.
 Total amount = 200
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Create product api using json-server
+having following properties
+id,name,desc,manu,price
+2. Create ngassignment angular project
+3. Create product component under components folder
+4. Crean an UI to save product and fetch product
+</t>
+  </si>
+  <si>
+    <t>Product Master</t>
+  </si>
+  <si>
+    <t>Name :</t>
+  </si>
+  <si>
+    <t>Desc:</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>&lt;Submit&gt;</t>
+  </si>
+  <si>
+    <t>List Products</t>
+  </si>
+  <si>
+    <t>&lt;code&gt;&lt;Name&gt;&lt;Desc&gt;&lt;Manu&gt;&lt;Price&gt;</t>
+  </si>
+  <si>
+    <t>Model-Component-&gt;Service</t>
+  </si>
+  <si>
+    <t>Product.ts</t>
   </si>
 </sst>
 </file>
@@ -268,7 +307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -295,6 +334,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -576,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{380630C8-0555-45AE-8D26-715650C4BC5F}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -751,11 +800,82 @@
         <v>36</v>
       </c>
     </row>
+    <row r="14" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="16">
+        <v>12</v>
+      </c>
+      <c r="B14" s="18">
+        <v>44768</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D16" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D18" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D19" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D20" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D21" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D22" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D23" s="20"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D24" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D25" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{106C9716-2B2D-4718-9542-A5D82F1FD05B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/operative_assignment_july_2022.xlsx
+++ b/operative_assignment_july_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kaushalya.tech\consultancy\operative\training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3339E38E-2D39-4105-BE65-73C0E6422E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0856CE7-5B32-4D60-9DAA-3B9D678C9FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -627,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{380630C8-0555-45AE-8D26-715650C4BC5F}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
